--- a/project/collection/excel/cosmos_collection_bc_model.xlsx
+++ b/project/collection/excel/cosmos_collection_bc_model.xlsx
@@ -589,22 +589,22 @@
       </c>
       <c r="E1" t="inlineStr">
         <is>
+          <t>standardStartVersion</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>standardEndVersion</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
           <t>domain</t>
         </is>
       </c>
-      <c r="F1" t="inlineStr">
+      <c r="H1" t="inlineStr">
         <is>
           <t>shortName</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>collectionigStartVersion</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>collectionigEndVersion</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
@@ -642,7 +642,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:R1"/>
+  <dimension ref="A1:Q1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -733,25 +733,17 @@
       </c>
       <c r="Q1" t="inlineStr">
         <is>
-          <t>cdashigCore</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
           <t>sdtmTarget</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="6">
+  <dataValidations count="4">
     <dataValidation sqref="J2:J1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"Radio,Dropdown,DropdownMultiSelect,Checkbox,Text,Date,Time,DateTime"</formula1>
     </dataValidation>
     <dataValidation sqref="M2:M1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"decimal,float,integer,text,date,time"</formula1>
-    </dataValidation>
-    <dataValidation sqref="Q2:Q1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
-      <formula1>"HR,R/C,O"</formula1>
     </dataValidation>
     <dataValidation sqref="J2:J1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"Radio,Dropdown,DropdownMultiSelect,Checkbox,Text,Date,Time,DateTime"</formula1>
@@ -759,9 +751,6 @@
     <dataValidation sqref="M2:M1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"decimal,float,integer,text,date,time"</formula1>
     </dataValidation>
-    <dataValidation sqref="Q2:Q1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
-      <formula1>"HR,R/C,O"</formula1>
-    </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
@@ -938,112 +927,112 @@
       </c>
       <c r="E1" t="inlineStr">
         <is>
+          <t>standardStartVersion</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>standardEndVersion</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
           <t>domain</t>
         </is>
       </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>shortName</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>biomedicalConceptId</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>sdtmDatasetSpecializationId</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>items</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:Q1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>dataElementConceptId</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>isNonStandard</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>eCRFItem</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>questionText</t>
+        </is>
+      </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>shortName</t>
+          <t>prompt</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>collectionigStartVersion</t>
+          <t>orderNumber</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>collectionigEndVersion</t>
+          <t>codelist</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t>biomedicalConceptId</t>
+          <t>valueList</t>
         </is>
       </c>
       <c r="J1" t="inlineStr">
         <is>
-          <t>sdtmDatasetSpecializationId</t>
+          <t>listStyle</t>
         </is>
       </c>
       <c r="K1" t="inlineStr">
         <is>
-          <t>items</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:R1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>dataElementConceptId</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>isNonStandard</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>eCRFItem</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>questionText</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>prompt</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>orderNumber</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>codelist</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>valueList</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>listStyle</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
           <t>prepopulatedValue</t>
         </is>
       </c>
@@ -1074,11 +1063,6 @@
       </c>
       <c r="Q1" t="inlineStr">
         <is>
-          <t>cdashigCore</t>
-        </is>
-      </c>
-      <c r="R1" t="inlineStr">
-        <is>
           <t>sdtmTarget</t>
         </is>
       </c>

--- a/project/collection/excel/cosmos_collection_bc_model.xlsx
+++ b/project/collection/excel/cosmos_collection_bc_model.xlsx
@@ -4,21 +4,15 @@
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="11" autoFilterDateGrouping="1"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CodeList" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DataCollectionGroup" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DataCollectionItem" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ListValue" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PrepopulatedValue" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DataCollectionGroup" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DataCollectionItem" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ListValue" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PrepopulatedValue" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CodeList" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SDTMTarget" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CodeList1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DataCollectionGroup1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DataCollectionItem1" sheetId="9" state="visible" r:id="rId9"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ListValue1" sheetId="10" state="visible" r:id="rId10"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PrepopulatedValue1" sheetId="11" state="visible" r:id="rId11"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SDTMTarget1" sheetId="12" state="visible" r:id="rId12"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -424,7 +418,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:K1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -435,26 +429,185 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>conceptId</t>
+          <t>packageDate</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>href</t>
+          <t>packageType</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">
         <is>
-          <t>submissionValue</t>
+          <t>collectionSpecializationId</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>shortName</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>standard</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>standardStartVersion</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>standardEndVersion</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>domain</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>biomedicalConceptId</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>sdtmDatasetSpecializationId</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>items</t>
         </is>
       </c>
     </row>
   </sheetData>
+  <dataValidations count="1">
+    <dataValidation sqref="B2:B1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>"collection"</formula1>
+    </dataValidation>
+  </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:Q1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="A1" t="inlineStr">
+        <is>
+          <t>name</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
+          <t>dataElementConceptId</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>isNonStandard</t>
+        </is>
+      </c>
+      <c r="D1" t="inlineStr">
+        <is>
+          <t>dataCollectionInstrumentItem</t>
+        </is>
+      </c>
+      <c r="E1" t="inlineStr">
+        <is>
+          <t>questionText</t>
+        </is>
+      </c>
+      <c r="F1" t="inlineStr">
+        <is>
+          <t>prompt</t>
+        </is>
+      </c>
+      <c r="G1" t="inlineStr">
+        <is>
+          <t>orderNumber</t>
+        </is>
+      </c>
+      <c r="H1" t="inlineStr">
+        <is>
+          <t>mandatoryVariable</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>dataType</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
+          <t>length</t>
+        </is>
+      </c>
+      <c r="K1" t="inlineStr">
+        <is>
+          <t>significantDigits</t>
+        </is>
+      </c>
+      <c r="L1" t="inlineStr">
+        <is>
+          <t>displayHidden</t>
+        </is>
+      </c>
+      <c r="M1" t="inlineStr">
+        <is>
+          <t>valueList</t>
+        </is>
+      </c>
+      <c r="N1" t="inlineStr">
+        <is>
+          <t>listType</t>
+        </is>
+      </c>
+      <c r="O1" t="inlineStr">
+        <is>
+          <t>prepopulatedValue</t>
+        </is>
+      </c>
+      <c r="P1" t="inlineStr">
+        <is>
+          <t>codelist</t>
+        </is>
+      </c>
+      <c r="Q1" t="inlineStr">
+        <is>
+          <t>sdtmTarget</t>
+        </is>
+      </c>
+    </row>
+  </sheetData>
+  <dataValidations count="2">
+    <dataValidation sqref="I2:I1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>"decimal,float,integer,text,date,time"</formula1>
+    </dataValidation>
+    <dataValidation sqref="N2:N1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>"Radio,Dropdown,DropdownMultiSelect,Checkbox,Text,Date,Time,DateTime"</formula1>
+    </dataValidation>
+  </dataValidations>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -471,287 +624,16 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>listValue__value</t>
+          <t>displayValue</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>listValue__displayValue</t>
+          <t>value</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:B1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>prepopulatedValue__conceptId</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>prepopulatedValue__value</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>sdtmVariable</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>sdtmAnnotation</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>sdtmTargetMapping</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:K1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>packageDate</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>packageType</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>datasetSpecializationId</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>standard</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>standardStartVersion</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>standardEndVersion</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>domain</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>shortName</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>biomedicalConceptId</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>sdtmDatasetSpecializationId</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>items</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <dataValidations count="2">
-    <dataValidation sqref="B2:B1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
-      <formula1>"collection"</formula1>
-    </dataValidation>
-    <dataValidation sqref="B2:B1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
-      <formula1>"collection"</formula1>
-    </dataValidation>
-  </dataValidations>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:Q1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>dataElementConceptId</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>isNonStandard</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>eCRFItem</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>questionText</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>prompt</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>orderNumber</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>codelist</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>valueList</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>listStyle</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>prepopulatedValue</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>displayHidden</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>dataType</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>length</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>significantDigits</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>mandatoryVariable</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>sdtmTarget</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <dataValidations count="4">
-    <dataValidation sqref="J2:J1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
-      <formula1>"Radio,Dropdown,DropdownMultiSelect,Checkbox,Text,Date,Time,DateTime"</formula1>
-    </dataValidation>
-    <dataValidation sqref="M2:M1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
-      <formula1>"decimal,float,integer,text,date,time"</formula1>
-    </dataValidation>
-    <dataValidation sqref="J2:J1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
-      <formula1>"Radio,Dropdown,DropdownMultiSelect,Checkbox,Text,Date,Time,DateTime"</formula1>
-    </dataValidation>
-    <dataValidation sqref="M2:M1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
-      <formula1>"decimal,float,integer,text,date,time"</formula1>
-    </dataValidation>
-  </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
@@ -773,12 +655,12 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>listValue__value</t>
+          <t>value</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>listValue__displayValue</t>
+          <t>conceptId</t>
         </is>
       </c>
     </row>
@@ -793,7 +675,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -804,12 +686,17 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>prepopulatedValue__conceptId</t>
+          <t>submissionValue</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>prepopulatedValue__value</t>
+          <t>conceptId</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
+          <t>href</t>
         </is>
       </c>
     </row>
@@ -852,222 +739,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:C1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>conceptId</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>href</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>submissionValue</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:K1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>packageDate</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>packageType</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>datasetSpecializationId</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>standard</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>standardStartVersion</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>standardEndVersion</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>domain</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>shortName</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>biomedicalConceptId</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>sdtmDatasetSpecializationId</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>items</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:Q1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="A1" t="inlineStr">
-        <is>
-          <t>name</t>
-        </is>
-      </c>
-      <c r="B1" t="inlineStr">
-        <is>
-          <t>dataElementConceptId</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>isNonStandard</t>
-        </is>
-      </c>
-      <c r="D1" t="inlineStr">
-        <is>
-          <t>eCRFItem</t>
-        </is>
-      </c>
-      <c r="E1" t="inlineStr">
-        <is>
-          <t>questionText</t>
-        </is>
-      </c>
-      <c r="F1" t="inlineStr">
-        <is>
-          <t>prompt</t>
-        </is>
-      </c>
-      <c r="G1" t="inlineStr">
-        <is>
-          <t>orderNumber</t>
-        </is>
-      </c>
-      <c r="H1" t="inlineStr">
-        <is>
-          <t>codelist</t>
-        </is>
-      </c>
-      <c r="I1" t="inlineStr">
-        <is>
-          <t>valueList</t>
-        </is>
-      </c>
-      <c r="J1" t="inlineStr">
-        <is>
-          <t>listStyle</t>
-        </is>
-      </c>
-      <c r="K1" t="inlineStr">
-        <is>
-          <t>prepopulatedValue</t>
-        </is>
-      </c>
-      <c r="L1" t="inlineStr">
-        <is>
-          <t>displayHidden</t>
-        </is>
-      </c>
-      <c r="M1" t="inlineStr">
-        <is>
-          <t>dataType</t>
-        </is>
-      </c>
-      <c r="N1" t="inlineStr">
-        <is>
-          <t>length</t>
-        </is>
-      </c>
-      <c r="O1" t="inlineStr">
-        <is>
-          <t>significantDigits</t>
-        </is>
-      </c>
-      <c r="P1" t="inlineStr">
-        <is>
-          <t>mandatoryVariable</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>sdtmTarget</t>
-        </is>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-</worksheet>
 </file>
--- a/project/collection/excel/cosmos_collection_bc_model.xlsx
+++ b/project/collection/excel/cosmos_collection_bc_model.xlsx
@@ -418,7 +418,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K1"/>
+  <dimension ref="A1:M1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,29 +464,42 @@
       </c>
       <c r="H1" t="inlineStr">
         <is>
+          <t>implementationOption</t>
+        </is>
+      </c>
+      <c r="I1" t="inlineStr">
+        <is>
+          <t>scenario</t>
+        </is>
+      </c>
+      <c r="J1" t="inlineStr">
+        <is>
           <t>domain</t>
         </is>
       </c>
-      <c r="I1" t="inlineStr">
+      <c r="K1" t="inlineStr">
         <is>
           <t>biomedicalConceptId</t>
         </is>
       </c>
-      <c r="J1" t="inlineStr">
+      <c r="L1" t="inlineStr">
         <is>
           <t>sdtmDatasetSpecializationId</t>
         </is>
       </c>
-      <c r="K1" t="inlineStr">
+      <c r="M1" t="inlineStr">
         <is>
           <t>items</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <dataValidations count="1">
+  <dataValidations count="2">
     <dataValidation sqref="B2:B1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"collection"</formula1>
+    </dataValidation>
+    <dataValidation sqref="H2:H1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+      <formula1>"Horizontal,Vertical"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -515,57 +528,57 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
+          <t>variableName</t>
+        </is>
+      </c>
+      <c r="C1" t="inlineStr">
+        <is>
           <t>dataElementConceptId</t>
         </is>
       </c>
-      <c r="C1" t="inlineStr">
-        <is>
-          <t>isNonStandard</t>
-        </is>
-      </c>
       <c r="D1" t="inlineStr">
         <is>
-          <t>dataCollectionInstrumentItem</t>
+          <t>questionText</t>
         </is>
       </c>
       <c r="E1" t="inlineStr">
         <is>
-          <t>questionText</t>
+          <t>prompt</t>
         </is>
       </c>
       <c r="F1" t="inlineStr">
         <is>
-          <t>prompt</t>
+          <t>orderNumber</t>
         </is>
       </c>
       <c r="G1" t="inlineStr">
         <is>
-          <t>orderNumber</t>
+          <t>mandatoryVariable</t>
         </is>
       </c>
       <c r="H1" t="inlineStr">
         <is>
-          <t>mandatoryVariable</t>
+          <t>dataType</t>
         </is>
       </c>
       <c r="I1" t="inlineStr">
         <is>
-          <t>dataType</t>
+          <t>length</t>
         </is>
       </c>
       <c r="J1" t="inlineStr">
         <is>
-          <t>length</t>
+          <t>significantDigits</t>
         </is>
       </c>
       <c r="K1" t="inlineStr">
         <is>
-          <t>significantDigits</t>
+          <t>displayHidden</t>
         </is>
       </c>
       <c r="L1" t="inlineStr">
         <is>
-          <t>displayHidden</t>
+          <t>codelist</t>
         </is>
       </c>
       <c r="M1" t="inlineStr">
@@ -585,18 +598,18 @@
       </c>
       <c r="P1" t="inlineStr">
         <is>
-          <t>codelist</t>
+          <t>sdtmTarget</t>
         </is>
       </c>
       <c r="Q1" t="inlineStr">
         <is>
-          <t>sdtmTarget</t>
+          <t>sdtmAnnotation</t>
         </is>
       </c>
     </row>
   </sheetData>
   <dataValidations count="2">
-    <dataValidation sqref="I2:I1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
+    <dataValidation sqref="H2:H1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
       <formula1>"decimal,float,integer,text,date,time"</formula1>
     </dataValidation>
     <dataValidation sqref="N2:N1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
@@ -711,7 +724,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:B1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -727,11 +740,6 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>sdtmAnnotation</t>
-        </is>
-      </c>
-      <c r="C1" t="inlineStr">
-        <is>
           <t>sdtmTargetMapping</t>
         </is>
       </c>

--- a/project/collection/excel/cosmos_collection_bc_model.xlsx
+++ b/project/collection/excel/cosmos_collection_bc_model.xlsx
@@ -512,7 +512,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Q1"/>
+  <dimension ref="A1:P1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -599,11 +599,6 @@
       <c r="P1" t="inlineStr">
         <is>
           <t>sdtmTarget</t>
-        </is>
-      </c>
-      <c r="Q1" t="inlineStr">
-        <is>
-          <t>sdtmAnnotation</t>
         </is>
       </c>
     </row>
@@ -724,7 +719,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B1"/>
+  <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -735,10 +730,15 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
+          <t>sdtmAnnotation</t>
+        </is>
+      </c>
+      <c r="B1" t="inlineStr">
+        <is>
           <t>sdtmVariable</t>
         </is>
       </c>
-      <c r="B1" t="inlineStr">
+      <c r="C1" t="inlineStr">
         <is>
           <t>sdtmTargetMapping</t>
         </is>

--- a/project/collection/excel/cosmos_collection_bc_model.xlsx
+++ b/project/collection/excel/cosmos_collection_bc_model.xlsx
@@ -735,7 +735,7 @@
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>sdtmVariable</t>
+          <t>sdtmVariables</t>
         </is>
       </c>
       <c r="C1" t="inlineStr">

--- a/project/collection/excel/cosmos_collection_bc_model.xlsx
+++ b/project/collection/excel/cosmos_collection_bc_model.xlsx
@@ -1,18 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DataCollectionGroup" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DataCollectionItem" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ListValue" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PrepopulatedValue" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CodeList" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SDTMTarget" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="DataCollectionGroup" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="DataCollectionItem" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="ListValue" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="PrepopulatedValue" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="CodeList" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="SDTMTarget" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/project/collection/excel/cosmos_collection_bc_model.xlsx
+++ b/project/collection/excel/cosmos_collection_bc_model.xlsx
@@ -1,18 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="DataCollectionGroup" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="DataCollectionItem" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="ListValue" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="PrepopulatedValue" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="CodeList" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="SDTMTarget" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DataCollectionGroup" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DataCollectionItem" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ListValue" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PrepopulatedValue" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CodeList" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SDTMTarget" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -588,7 +588,7 @@
       </c>
       <c r="N1" t="inlineStr">
         <is>
-          <t>listType</t>
+          <t>selectionType</t>
         </is>
       </c>
       <c r="O1" t="inlineStr">
@@ -608,7 +608,7 @@
       <formula1>"decimal,float,integer,text,date,time"</formula1>
     </dataValidation>
     <dataValidation sqref="N2:N1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
-      <formula1>"Radio,Dropdown,DropdownMultiSelect,Checkbox,Text,Date,Time,DateTime"</formula1>
+      <formula1>"Multiple,Single"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/project/collection/excel/cosmos_collection_bc_model.xlsx
+++ b/project/collection/excel/cosmos_collection_bc_model.xlsx
@@ -1,18 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DataCollectionGroup" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DataCollectionItem" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ListValue" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PrepopulatedValue" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CodeList" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SDTMTarget" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet name="DataCollectionGroup" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="DataCollectionItem" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet name="ListValue" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet name="PrepopulatedValue" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet name="CodeList" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet name="SDTMTarget" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -499,7 +499,7 @@
       <formula1>"collection"</formula1>
     </dataValidation>
     <dataValidation sqref="H2:H1048576" showDropDown="0" showInputMessage="0" showErrorMessage="0" allowBlank="1" type="list">
-      <formula1>"Horizontal,Vertical"</formula1>
+      <formula1>"Normalized,Denormalized"</formula1>
     </dataValidation>
   </dataValidations>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>

--- a/project/collection/excel/cosmos_collection_bc_model.xlsx
+++ b/project/collection/excel/cosmos_collection_bc_model.xlsx
@@ -1,18 +1,18 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="DataCollectionGroup" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet name="DataCollectionItem" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet name="ListValue" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet name="PrepopulatedValue" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet name="CodeList" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet name="SDTMTarget" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DataCollectionGroup" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DataCollectionItem" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="ListValue" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="PrepopulatedValue" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="CodeList" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="SDTMTarget" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
